--- a/data/resumes_scrubbed/legislative_activity/103_2.xlsx
+++ b/data/resumes_scrubbed/legislative_activity/103_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/data/resumes_scrubbed/legislative_activity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D988111-409A-4576-ACAA-F20070605A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{8D988111-409A-4576-ACAA-F20070605A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14C0D691-37E6-42AF-8CAD-9D253D9B271A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,13 +148,13 @@
     <t xml:space="preserve">     Measures introduced, Bills </t>
   </si>
   <si>
-    <t xml:space="preserve">     Measures introduced, Joint resolucions </t>
-  </si>
-  <si>
     <t xml:space="preserve">     Measures introduced, Concurrent resolutions  </t>
   </si>
   <si>
     <t xml:space="preserve">     Measures introduced, Simple resolutions  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Measures introduced, Joint resolutions </t>
   </si>
 </sst>
 </file>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B34" s="1">
         <v>72</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="1">
         <v>23</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="1">
         <v>116</v>

--- a/data/resumes_scrubbed/legislative_activity/103_2.xlsx
+++ b/data/resumes_scrubbed/legislative_activity/103_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/data/resumes_scrubbed/legislative_activity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{8D988111-409A-4576-ACAA-F20070605A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14C0D691-37E6-42AF-8CAD-9D253D9B271A}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{8D988111-409A-4576-ACAA-F20070605A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CBF4FA2-D8C0-46B0-8742-689BB07720BE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="103_2" sheetId="1" r:id="rId1"/>
@@ -705,6 +705,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1078,13 +1082,13 @@
         <v>25</v>
       </c>
       <c r="B4" s="3">
-        <v>34357</v>
+        <v>34359</v>
       </c>
       <c r="C4" s="3">
-        <v>34357</v>
+        <v>34359</v>
       </c>
       <c r="D4" s="3">
-        <v>34357</v>
+        <v>34359</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
